--- a/input/industry/Ethylene_Production.xlsx
+++ b/input/industry/Ethylene_Production.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5E70BC-A170-43F5-8EFE-3755D3D1784A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A496E8B1-94FA-460C-984D-93AEB9171AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11910" yWindow="1500" windowWidth="15585" windowHeight="13650"/>
+    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t>Gesamte Produktion je PRODCOM Liste (NACE Rev. 2) - Jährliche Daten  [DS-066342]</t>
   </si>
@@ -301,12 +301,6 @@
     <t>with [5]</t>
   </si>
   <si>
-    <t>kg (in kg in Sheet "Data")</t>
-  </si>
-  <si>
-    <t>ton (in tausend tones in Sheet "Data")</t>
-  </si>
-  <si>
     <t>[7]</t>
   </si>
   <si>
@@ -316,14 +310,38 @@
     <t>IndexBox Platform</t>
   </si>
   <si>
-    <t>tausend tones (in tausend tones in Sheet "Data")</t>
+    <t>kg (in kg in Sheet "Data_orig")</t>
+  </si>
+  <si>
+    <t>ton (in tausend tones in Sheet "Data_orig")</t>
+  </si>
+  <si>
+    <t>tausend tones (in tausend tones in Sheet "Data_orig")</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>United Kingdom, Norway</t>
+  </si>
+  <si>
+    <t>https://www.ineos.com/businesses/ineos-olefins-polymers-europe/sites/</t>
+  </si>
+  <si>
+    <t>https://www.ineos.com/businesses/ineos-olefins-polymers-europe/products/</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>Further Info:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -361,6 +379,11 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="3">
@@ -418,18 +441,18 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -706,11 +729,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1092,11 +1115,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1229,15 +1252,15 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1260,7 +1283,7 @@
         <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1274,7 +1297,7 @@
         <v>70</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1285,7 +1308,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>93</v>
@@ -1378,14 +1401,30 @@
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1403,11 +1442,12 @@
       <c r="C25" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1"/>
-    <hyperlink ref="F5" r:id="rId2"/>
-    <hyperlink ref="F9" r:id="rId3"/>
-    <hyperlink ref="F10" r:id="rId4" display="https://app.indexbox.io/"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F10" r:id="rId4" display="https://app.indexbox.io/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1415,14 +1455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AN43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH40" sqref="AH40:AH42"/>
+      <selection pane="bottomRight" activeCell="AG43" sqref="AG43:AJ43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/input/industry/Ethylene_Production.xlsx
+++ b/input/industry/Ethylene_Production.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\industry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A496E8B1-94FA-460C-984D-93AEB9171AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAF6E0B-7631-4875-9F7A-ED1786C51AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="180" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1160" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DA746C46-15A9-48D2-A713-34E6EDDD59C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="4" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
-  <si>
-    <t>Gesamte Produktion je PRODCOM Liste (NACE Rev. 2) - Jährliche Daten  [DS-066342]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="106">
   <si>
     <t>Eurostat</t>
   </si>
@@ -181,21 +178,9 @@
     <t>https://s3-us-west-2.amazonaws.com/okchem-o/image/201810/af95dc78-926f-43f5-a1ef-e5b3cb058c9b.pdf</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
     <t>Philippines</t>
   </si>
   <si>
@@ -205,9 +190,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
     <t>Unit:</t>
   </si>
   <si>
@@ -335,13 +317,49 @@
   </si>
   <si>
     <t>Further Info:</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/DS-056121__custom_7067110/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Gesamte Produktion je PRODCOM Liste (NACE Rev. 2) - Jährliche Daten  [DS-056121]</t>
+  </si>
+  <si>
+    <t>Data extracted on 02/08/2023 09:26:04 from [ESTAT]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset: </t>
+  </si>
+  <si>
+    <t>Total production [DS-056121__custom_7067110]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last updated: </t>
+  </si>
+  <si>
+    <t>24/07/2023 11:00</t>
+  </si>
+  <si>
+    <t>[4], A2</t>
+  </si>
+  <si>
+    <t>[3], A1</t>
+  </si>
+  <si>
+    <t>[5], A4</t>
+  </si>
+  <si>
+    <t>[2], A3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -383,7 +401,25 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="238"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -435,11 +471,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,17 +484,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{2E79D847-0D76-4BC6-8254-943DAC482AAB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,381 +775,459 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>41</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2622.9848895833334</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>2496.3377500000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>4942.2450833333332</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B10">
         <v>297.15986624999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <f>660*2*0.6</f>
         <v>792</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2648.9859919999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="B16">
         <f>413.4094*0.5</f>
         <v>206.7047</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="5">
         <f>420*0.5*0.8+10</f>
         <v>178</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <f>500*0.5*0.8</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B23">
         <v>467.83600000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <f>544*0.5*0.8</f>
         <v>217.60000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>35.9296656</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>580.39200000000005</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B34">
         <f>200*0.8</f>
         <v>160</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>527</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37">
+        <v>1162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>48</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>1500</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>49</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>50</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>51</v>
-      </c>
       <c r="B40">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>54</v>
-      </c>
-      <c r="B43">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44">
         <v>2148</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
+      <c r="C40" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1116,366 +1239,400 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.875" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>52</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="F4" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C12" s="1" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="12" t="s">
+        <v>46</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>81</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>83</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>99</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="F10" r:id="rId4" display="https://app.indexbox.io/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="F13" r:id="rId4" display="https://app.indexbox.io/" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{DC47B3BB-9A23-4E3B-A1BC-6C5C22DBC620}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AN43"/>
+  <dimension ref="A1:AR43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AG43" sqref="AG43:AJ43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="24" max="26" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15" customWidth="1"/>
     <col min="37" max="37" width="10" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2">
         <v>1981</v>
@@ -1594,10 +1751,22 @@
       <c r="AN1" s="2">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>2021</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>2022</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1678,10 +1847,22 @@
       <c r="AN2" s="3">
         <v>2473430997</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO2" s="3">
+        <v>2169874230</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>2377421485</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>2246138357</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1736,12 +1917,24 @@
         <v>2865197000</v>
       </c>
       <c r="AN3" s="3">
-        <v>2235343000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+        <v>2011612000</v>
+      </c>
+      <c r="AO3" s="3">
+        <v>2399119000</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>2191263000</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>2023635000</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1822,10 +2015,22 @@
       <c r="AN4" s="3">
         <v>4524215000</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO4" s="3">
+        <v>4968741000</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>5195811000</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>4320108000</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1866,10 +2071,16 @@
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1940,10 +2151,16 @@
       <c r="AN6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO6" s="3"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AR6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -2024,10 +2241,18 @@
       <c r="AN7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -2108,10 +2333,18 @@
       <c r="AN8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AR8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -2186,10 +2419,22 @@
       <c r="AN9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -2260,10 +2505,20 @@
       <c r="AN10" s="3">
         <v>361095550</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO10" s="3">
+        <v>351772472</v>
+      </c>
+      <c r="AP10" s="3">
+        <v>359653512</v>
+      </c>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -2304,10 +2559,16 @@
       <c r="AL11" s="4"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO11" s="3"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AR11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -2358,10 +2619,18 @@
       <c r="AN12" s="3">
         <v>2409110608</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO12" s="3"/>
+      <c r="AP12" s="3">
+        <v>1200424695</v>
+      </c>
+      <c r="AQ12" s="3"/>
+      <c r="AR12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2442,10 +2711,22 @@
       <c r="AN13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -2522,10 +2803,22 @@
       <c r="AN14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -2576,10 +2869,18 @@
       <c r="AN15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="3"/>
+      <c r="AQ15" s="3"/>
+      <c r="AR15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -2628,10 +2929,22 @@
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO16" s="3">
+        <v>202171000</v>
+      </c>
+      <c r="AP16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -2676,10 +2989,16 @@
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -2728,10 +3047,16 @@
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -2796,10 +3121,22 @@
       <c r="AN19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -2842,10 +3179,16 @@
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2916,10 +3259,16 @@
       <c r="AN21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2988,10 +3337,18 @@
       <c r="AN22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -3062,10 +3419,20 @@
       <c r="AN23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -3118,10 +3485,18 @@
       <c r="AN24" s="3">
         <v>474778000</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO24" s="3">
+        <v>486940000</v>
+      </c>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -3162,10 +3537,16 @@
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -3218,10 +3599,22 @@
       <c r="AN26" s="3">
         <v>169478611</v>
       </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO26" s="3">
+        <v>207911000</v>
+      </c>
+      <c r="AP26" s="3">
+        <v>218186970</v>
+      </c>
+      <c r="AQ26" s="3">
+        <v>184080086</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -3272,10 +3665,18 @@
       <c r="AN27" s="3">
         <v>565534000</v>
       </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO27" s="3">
+        <v>591871000</v>
+      </c>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -3340,10 +3741,22 @@
       <c r="AN28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3404,10 +3817,18 @@
       <c r="AN29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3"/>
+      <c r="AQ29" s="3"/>
+      <c r="AR29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -3476,10 +3897,22 @@
       <c r="AN30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -3544,10 +3977,18 @@
       <c r="AN31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3"/>
+      <c r="AQ31" s="3"/>
+      <c r="AR31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -3604,10 +4045,18 @@
       <c r="AN32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="3"/>
+      <c r="AQ32" s="3"/>
+      <c r="AR32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -3666,10 +4115,20 @@
       <c r="AN33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="3"/>
+      <c r="AR33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -3728,10 +4187,20 @@
       <c r="AN34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="3"/>
+      <c r="AR34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -3774,10 +4243,16 @@
       <c r="AL35" s="4"/>
       <c r="AM35" s="4"/>
       <c r="AN35" s="4"/>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AO35" s="3"/>
+      <c r="AP35" s="3"/>
+      <c r="AQ35" s="3"/>
+      <c r="AR35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -3840,12 +4315,24 @@
         <v>17439047298</v>
       </c>
       <c r="AN36" s="3">
-        <v>16852147309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.2">
+        <v>16628416309</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>16477749296</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>15649568262</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>13558041401</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3908,12 +4395,18 @@
         <v>17439047298</v>
       </c>
       <c r="AN37" s="3">
-        <v>16852147309</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.2">
+        <v>16628416309</v>
+      </c>
+      <c r="AO37" s="3"/>
+      <c r="AP37" s="3"/>
+      <c r="AQ37" s="3"/>
+      <c r="AR37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -3980,10 +4473,22 @@
       <c r="AN38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>46</v>
+      <c r="AO38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -4001,7 +4506,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
-      <c r="AD39" s="8">
+      <c r="AD39" s="7">
         <v>512.78</v>
       </c>
       <c r="AE39">
@@ -4013,10 +4518,13 @@
       <c r="AG39">
         <v>517.1</v>
       </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AR39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4032,7 +4540,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
-      <c r="AD40" s="9"/>
+      <c r="AD40" s="8"/>
       <c r="AH40">
         <f>2300-84.8</f>
         <v>2215.1999999999998</v>
@@ -4045,10 +4553,13 @@
         <f>2100-23.2</f>
         <v>2076.8000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AR40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4077,10 +4588,13 @@
         <f>179.8-44</f>
         <v>135.80000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>53</v>
+      <c r="AR41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="AH42">
         <f>1600-36.8</f>
@@ -4094,10 +4608,13 @@
         <f>1500-35.5</f>
         <v>1464.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="AR42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AG43">
         <f>1300-19.2</f>
@@ -4114,6 +4631,9 @@
       <c r="AJ43">
         <f>1200-43.5</f>
         <v>1156.5</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
